--- a/datosAMC_Prac2.xlsx
+++ b/datosAMC_Prac2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\Github\UNI\AMC_Prac2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86881347-0B7A-42E7-BD8A-B88BA0F59DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389D777-E9B8-46E3-B813-66CEB6B183EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9D8AF05C-791C-4FEF-AC71-C47262BC71D9}"/>
+    <workbookView xWindow="3516" yWindow="2364" windowWidth="23040" windowHeight="12204" xr2:uid="{9D8AF05C-791C-4FEF-AC71-C47262BC71D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Tiempo Exhaustivas</a:t>
+              <a:t>Tiempo Poda</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1582,11 +1582,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$3</c:f>
+              <c:f>Hoja1!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Uni Exhaustiva</c:v>
+                  <c:v>Uni Poda</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1610,8 +1610,59 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -1639,31 +1690,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$5:$C$9</c:f>
+              <c:f>Hoja1!$C$30:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8772-4D36-819D-763B6A810FE2}"/>
+              <c16:uniqueId val="{00000000-3424-47EE-83A4-F5DF754C56BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,11 +1723,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$3</c:f>
+              <c:f>Hoja1!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bi Exhaustiva</c:v>
+                  <c:v>Bi Poda</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1700,8 +1751,59 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -1729,31 +1831,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$E$30:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8772-4D36-819D-763B6A810FE2}"/>
+              <c16:uniqueId val="{00000001-3424-47EE-83A4-F5DF754C56BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2089,7 +2191,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2178,11 +2280,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$28</c:f>
+              <c:f>Hoja1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Uni Poda</c:v>
+                  <c:v>Uni Exhaustiva</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2286,31 +2388,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$30:$C$34</c:f>
+              <c:f>Hoja1!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3424-47EE-83A4-F5DF754C56BC}"/>
+              <c16:uniqueId val="{00000000-024C-45B6-994D-40CFE5D4A683}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,11 +2421,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$28</c:f>
+              <c:f>Hoja1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bi Poda</c:v>
+                  <c:v>Bi Exhaustiva</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2427,31 +2529,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$30:$E$34</c:f>
+              <c:f>Hoja1!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3424-47EE-83A4-F5DF754C56BC}"/>
+              <c16:uniqueId val="{00000001-024C-45B6-994D-40CFE5D4A683}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5229,22 +5331,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42B1300-C008-4164-BC85-12DF577089E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D099B6D8-B0FC-438D-BFAD-368D91C5E87E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5267,22 +5369,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>788893</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>788893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D099B6D8-B0FC-438D-BFAD-368D91C5E87E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACDAEEF-7243-468B-B0BD-D100A9ACE738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5627,8 +5729,8 @@
   </sheetPr>
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,7 +5956,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="94" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
